--- a/MultipleTest.xlsx
+++ b/MultipleTest.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>GA02</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,8 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,27 +199,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -509,133 +508,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="36" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="1.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="2.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="3.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="2.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -652,100 +680,100 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>1026</v>
+        <v>12642.467889908257</v>
       </c>
       <c r="G2">
-        <v>967</v>
+        <v>12616.48623853211</v>
       </c>
       <c r="H2">
-        <v>986.99999999999989</v>
+        <v>12626.270642201835</v>
       </c>
       <c r="I2">
-        <v>967</v>
+        <v>12619.747706422018</v>
       </c>
       <c r="J2">
-        <v>990.00000000000011</v>
+        <v>12601.5</v>
       </c>
       <c r="K2">
-        <v>958</v>
+        <v>12611.587155963303</v>
       </c>
       <c r="L2">
-        <v>982.99999999999989</v>
+        <v>12622.885321100917</v>
       </c>
       <c r="M2">
-        <v>956.99999999999989</v>
+        <v>12619.58256880734</v>
       </c>
       <c r="N2">
-        <v>960</v>
+        <v>12600.577981651375</v>
       </c>
       <c r="O2">
-        <v>956</v>
+        <v>12614.366972477064</v>
       </c>
       <c r="P2">
-        <v>980.99999999999989</v>
+        <v>12609.288990825688</v>
       </c>
       <c r="Q2">
-        <v>949.00000000000011</v>
+        <v>12605.93119266055</v>
       </c>
       <c r="R2">
-        <v>965</v>
+        <v>12618.522935779816</v>
       </c>
       <c r="S2">
-        <v>956</v>
+        <v>12605.311926605506</v>
       </c>
       <c r="T2">
-        <v>960</v>
+        <v>12598.155963302754</v>
       </c>
       <c r="U2">
-        <v>960</v>
+        <v>12597.17889908257</v>
       </c>
       <c r="V2">
-        <v>953.99999999999989</v>
+        <v>12595.954128440366</v>
       </c>
       <c r="W2">
-        <v>948</v>
+        <v>12593.75229357798</v>
       </c>
       <c r="X2">
-        <v>942</v>
+        <v>12593.752293577982</v>
       </c>
       <c r="Y2">
-        <v>956.99999999999989</v>
+        <v>12600.908256880733</v>
       </c>
       <c r="Z2">
-        <v>947</v>
+        <v>12602.628440366972</v>
       </c>
       <c r="AA2">
-        <v>963</v>
+        <v>12615.894495412844</v>
       </c>
       <c r="AB2">
-        <v>955</v>
+        <v>12590.449541284403</v>
       </c>
       <c r="AC2">
-        <v>956.99999999999989</v>
+        <v>12591.825688073393</v>
       </c>
       <c r="AD2">
-        <v>956</v>
+        <v>12611.064220183485</v>
       </c>
       <c r="AE2">
-        <v>948</v>
+        <v>12610.541284403669</v>
       </c>
       <c r="AF2">
-        <v>961</v>
+        <v>12616.211009174312</v>
       </c>
       <c r="AG2">
-        <v>956.99999999999989</v>
+        <v>12599.807339449542</v>
       </c>
       <c r="AH2">
-        <v>951</v>
+        <v>12597.399082568807</v>
       </c>
       <c r="AI2">
-        <v>947</v>
+        <v>12611.339449541285</v>
       </c>
       <c r="AJ2">
-        <v>956.99999999999989</v>
+        <v>12604.582568807338</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -762,100 +790,100 @@
         <v>75</v>
       </c>
       <c r="F3">
-        <v>1786</v>
+        <v>16839.123853211007</v>
       </c>
       <c r="G3">
-        <v>1543</v>
+        <v>16868.201834862386</v>
       </c>
       <c r="H3">
-        <v>1571</v>
+        <v>16865.201834862386</v>
       </c>
       <c r="I3">
-        <v>1578</v>
+        <v>16838.532110091743</v>
       </c>
       <c r="J3">
-        <v>1548</v>
+        <v>16831.995412844037</v>
       </c>
       <c r="K3">
-        <v>1566</v>
+        <v>16806.577981651375</v>
       </c>
       <c r="L3">
-        <v>1566</v>
+        <v>16843.444954128441</v>
       </c>
       <c r="M3">
-        <v>1573</v>
+        <v>16830.495412844037</v>
       </c>
       <c r="N3">
-        <v>1570</v>
+        <v>16844.84862385321</v>
       </c>
       <c r="O3">
-        <v>1548</v>
+        <v>16871.077981651375</v>
       </c>
       <c r="P3">
-        <v>1563</v>
+        <v>16777.802752293577</v>
       </c>
       <c r="Q3">
-        <v>1550</v>
+        <v>16788.275229357798</v>
       </c>
       <c r="R3">
-        <v>1546</v>
+        <v>16798.85779816514</v>
       </c>
       <c r="S3">
-        <v>1553</v>
+        <v>16813.169724770643</v>
       </c>
       <c r="T3">
-        <v>1545</v>
+        <v>16828.568807339449</v>
       </c>
       <c r="U3">
-        <v>1555</v>
+        <v>16804.51376146789</v>
       </c>
       <c r="V3">
-        <v>1537</v>
+        <v>16822.403669724772</v>
       </c>
       <c r="W3">
-        <v>1556</v>
+        <v>16788.756880733945</v>
       </c>
       <c r="X3">
-        <v>1552</v>
+        <v>16806.756880733945</v>
       </c>
       <c r="Y3">
-        <v>1525</v>
+        <v>16822.389908256882</v>
       </c>
       <c r="Z3">
-        <v>1556</v>
+        <v>16813.69266055046</v>
       </c>
       <c r="AA3">
-        <v>1546</v>
+        <v>16791.385321100919</v>
       </c>
       <c r="AB3">
-        <v>1550</v>
+        <v>16825.169724770643</v>
       </c>
       <c r="AC3">
-        <v>1549</v>
+        <v>16835.573394495412</v>
       </c>
       <c r="AD3">
-        <v>1543</v>
+        <v>16795.362385321099</v>
       </c>
       <c r="AE3">
-        <v>1531</v>
+        <v>16826.84862385321</v>
       </c>
       <c r="AF3">
-        <v>1555</v>
+        <v>16795.885321100915</v>
       </c>
       <c r="AG3">
-        <v>1559</v>
+        <v>16794.509174311926</v>
       </c>
       <c r="AH3">
-        <v>1552</v>
+        <v>16808.84862385321</v>
       </c>
       <c r="AI3">
-        <v>1550</v>
+        <v>16809.770642201835</v>
       </c>
       <c r="AJ3">
-        <v>1558</v>
+        <v>16809.15137614679</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -872,100 +900,100 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>2569</v>
+        <v>23710.059633027522</v>
       </c>
       <c r="G4">
-        <v>2292</v>
+        <v>23784.288990825688</v>
       </c>
       <c r="H4">
-        <v>2303</v>
+        <v>23763.399082568805</v>
       </c>
       <c r="I4">
-        <v>2316</v>
+        <v>23691.825688073393</v>
       </c>
       <c r="J4">
-        <v>2325</v>
+        <v>23821.885321100919</v>
       </c>
       <c r="K4">
-        <v>2303</v>
+        <v>23735.793577981654</v>
       </c>
       <c r="L4">
-        <v>2306</v>
+        <v>23680.059633027522</v>
       </c>
       <c r="M4">
-        <v>2323</v>
+        <v>23751.082568807342</v>
       </c>
       <c r="N4">
-        <v>2312</v>
+        <v>23789.82110091743</v>
       </c>
       <c r="O4">
-        <v>2327</v>
+        <v>23812.045871559632</v>
       </c>
       <c r="P4">
-        <v>2325</v>
+        <v>23792.82110091743</v>
       </c>
       <c r="Q4">
-        <v>2303</v>
+        <v>23743.69266055046</v>
       </c>
       <c r="R4">
-        <v>2293</v>
+        <v>23720.435779816515</v>
       </c>
       <c r="S4">
-        <v>2305</v>
+        <v>23687.022935779816</v>
       </c>
       <c r="T4">
-        <v>2304</v>
+        <v>23669.422018348625</v>
       </c>
       <c r="U4">
-        <v>2317</v>
+        <v>23695.912844036699</v>
       </c>
       <c r="V4">
-        <v>2314</v>
+        <v>23725.128440366971</v>
       </c>
       <c r="W4">
-        <v>2315</v>
+        <v>23691.646788990827</v>
       </c>
       <c r="X4">
-        <v>2303</v>
+        <v>23687.174311926607</v>
       </c>
       <c r="Y4">
-        <v>2300</v>
+        <v>23746.389908256882</v>
       </c>
       <c r="Z4">
-        <v>2308</v>
+        <v>23707.940366972474</v>
       </c>
       <c r="AA4">
-        <v>2305</v>
+        <v>23689.403669724768</v>
       </c>
       <c r="AB4">
-        <v>2310</v>
+        <v>23697.922018348625</v>
       </c>
       <c r="AC4">
-        <v>2310</v>
+        <v>23716.761467889908</v>
       </c>
       <c r="AD4">
-        <v>2320</v>
+        <v>23686.334862385324</v>
       </c>
       <c r="AE4">
-        <v>2305</v>
+        <v>23698.596330275228</v>
       </c>
       <c r="AF4">
-        <v>2314</v>
+        <v>23724.16513761468</v>
       </c>
       <c r="AG4">
-        <v>2307</v>
+        <v>23678.46330275229</v>
       </c>
       <c r="AH4">
-        <v>2304</v>
+        <v>23717.064220183485</v>
       </c>
       <c r="AI4">
-        <v>2305</v>
+        <v>23705.65596330275</v>
       </c>
       <c r="AJ4">
-        <v>2294</v>
+        <v>23680.30733944954</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -982,100 +1010,100 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>971.99999999999989</v>
+        <v>11122.444954128441</v>
       </c>
       <c r="G5">
-        <v>794</v>
+        <v>11140.899082568807</v>
       </c>
       <c r="H5">
-        <v>798</v>
+        <v>11140.674311926607</v>
       </c>
       <c r="I5">
-        <v>806</v>
+        <v>11122.004587155963</v>
       </c>
       <c r="J5">
-        <v>808</v>
+        <v>11141.655963302752</v>
       </c>
       <c r="K5">
-        <v>780</v>
+        <v>11115.091743119265</v>
       </c>
       <c r="L5">
-        <v>808</v>
+        <v>11140.834862385322</v>
       </c>
       <c r="M5">
-        <v>776</v>
+        <v>11143.40366972477</v>
       </c>
       <c r="N5">
-        <v>780</v>
+        <v>11098.481651376147</v>
       </c>
       <c r="O5">
-        <v>801</v>
+        <v>11102.839449541283</v>
       </c>
       <c r="P5">
-        <v>796</v>
+        <v>11126.233944954129</v>
       </c>
       <c r="Q5">
-        <v>766</v>
+        <v>11076.798165137614</v>
       </c>
       <c r="R5">
-        <v>782</v>
+        <v>11084.169724770643</v>
       </c>
       <c r="S5">
-        <v>765</v>
+        <v>11087.743119266055</v>
       </c>
       <c r="T5">
-        <v>787</v>
+        <v>11099.949541284404</v>
       </c>
       <c r="U5">
-        <v>775</v>
+        <v>11098.018348623853</v>
       </c>
       <c r="V5">
-        <v>785</v>
+        <v>11075.201834862386</v>
       </c>
       <c r="W5">
-        <v>780</v>
+        <v>11088.766055045871</v>
       </c>
       <c r="X5">
-        <v>773</v>
+        <v>11072.761467889908</v>
       </c>
       <c r="Y5">
-        <v>782</v>
+        <v>11107.293577981653</v>
       </c>
       <c r="Z5">
-        <v>780</v>
+        <v>11078.233944954129</v>
       </c>
       <c r="AA5">
-        <v>779</v>
+        <v>11071.325688073393</v>
       </c>
       <c r="AB5">
-        <v>772</v>
+        <v>11081.967889908257</v>
       </c>
       <c r="AC5">
-        <v>784</v>
+        <v>11105.123853211009</v>
       </c>
       <c r="AD5">
-        <v>791</v>
+        <v>11074.738532110092</v>
       </c>
       <c r="AE5">
-        <v>780</v>
+        <v>11091.972477064221</v>
       </c>
       <c r="AF5">
-        <v>785</v>
+        <v>11108.66513761468</v>
       </c>
       <c r="AG5">
-        <v>786</v>
+        <v>11066.298165137614</v>
       </c>
       <c r="AH5">
-        <v>786</v>
+        <v>11077.435779816513</v>
       </c>
       <c r="AI5">
-        <v>780</v>
+        <v>11079.876146788991</v>
       </c>
       <c r="AJ5">
-        <v>779</v>
+        <v>11084.646788990825</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1092,100 +1120,100 @@
         <v>75</v>
       </c>
       <c r="F6">
-        <v>1200</v>
+        <v>15221.876146788993</v>
       </c>
       <c r="G6">
-        <v>1084</v>
+        <v>15338.894495412844</v>
       </c>
       <c r="H6">
-        <v>1098</v>
+        <v>15425.123853211009</v>
       </c>
       <c r="I6">
-        <v>1105</v>
+        <v>15256.316513761465</v>
       </c>
       <c r="J6">
-        <v>1097</v>
+        <v>15362.288990825688</v>
       </c>
       <c r="K6">
-        <v>1074</v>
+        <v>15406.5</v>
       </c>
       <c r="L6">
-        <v>1114</v>
+        <v>15373.857798165136</v>
       </c>
       <c r="M6">
-        <v>1091</v>
+        <v>15371.848623853211</v>
       </c>
       <c r="N6">
-        <v>1101</v>
+        <v>15375.036697247708</v>
       </c>
       <c r="O6">
-        <v>1084</v>
+        <v>15497.188073394494</v>
       </c>
       <c r="P6">
-        <v>1089</v>
+        <v>15397.793577981651</v>
       </c>
       <c r="Q6">
-        <v>1086</v>
+        <v>15365.784403669726</v>
       </c>
       <c r="R6">
-        <v>1084</v>
+        <v>15299.688073394494</v>
       </c>
       <c r="S6">
-        <v>1059</v>
+        <v>15263.077981651373</v>
       </c>
       <c r="T6">
-        <v>1078</v>
+        <v>15302.573394495414</v>
       </c>
       <c r="U6">
-        <v>1080</v>
+        <v>15300.963302752292</v>
       </c>
       <c r="V6">
-        <v>1077</v>
+        <v>15330.596330275228</v>
       </c>
       <c r="W6">
-        <v>1079</v>
+        <v>15352.963302752292</v>
       </c>
       <c r="X6">
-        <v>1081</v>
+        <v>15345.82110091743</v>
       </c>
       <c r="Y6">
-        <v>1087</v>
+        <v>15321.298165137614</v>
       </c>
       <c r="Z6">
-        <v>1072</v>
+        <v>15334.073394495412</v>
       </c>
       <c r="AA6">
-        <v>1086</v>
+        <v>15339.5</v>
       </c>
       <c r="AB6">
-        <v>1087</v>
+        <v>15347.302752293577</v>
       </c>
       <c r="AC6">
-        <v>1071</v>
+        <v>15366.165137614678</v>
       </c>
       <c r="AD6">
-        <v>1074</v>
+        <v>15376.844036697246</v>
       </c>
       <c r="AE6">
-        <v>1080</v>
+        <v>15296.926605504586</v>
       </c>
       <c r="AF6">
-        <v>1077</v>
+        <v>15322.98623853211</v>
       </c>
       <c r="AG6">
-        <v>1086</v>
+        <v>15323.655963302752</v>
       </c>
       <c r="AH6">
-        <v>1080</v>
+        <v>15342.183486238533</v>
       </c>
       <c r="AI6">
-        <v>1076</v>
+        <v>15356.463302752292</v>
       </c>
       <c r="AJ6">
-        <v>1086</v>
+        <v>15337.077981651377</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1202,100 +1230,100 @@
         <v>100</v>
       </c>
       <c r="F7">
-        <v>1513</v>
+        <v>22623.284403669721</v>
       </c>
       <c r="G7">
-        <v>1426</v>
+        <v>23057.711009174312</v>
       </c>
       <c r="H7">
-        <v>1433</v>
+        <v>22904.628440366971</v>
       </c>
       <c r="I7">
-        <v>1399</v>
+        <v>23052.463302752294</v>
       </c>
       <c r="J7">
-        <v>1426</v>
+        <v>23131.931192660548</v>
       </c>
       <c r="K7">
-        <v>1399</v>
+        <v>22895.619266055048</v>
       </c>
       <c r="L7">
-        <v>1416</v>
+        <v>22986.825688073393</v>
       </c>
       <c r="M7">
-        <v>1412</v>
+        <v>22996.288990825688</v>
       </c>
       <c r="N7">
-        <v>1445</v>
+        <v>22915.211009174309</v>
       </c>
       <c r="O7">
-        <v>1422</v>
+        <v>23063.917431192658</v>
       </c>
       <c r="P7">
-        <v>1413</v>
+        <v>22901.344036697246</v>
       </c>
       <c r="Q7">
-        <v>1418</v>
+        <v>22831.582568807338</v>
       </c>
       <c r="R7">
-        <v>1408</v>
+        <v>22916.376146788989</v>
       </c>
       <c r="S7">
-        <v>1417</v>
+        <v>22811.233944954129</v>
       </c>
       <c r="T7">
-        <v>1422</v>
+        <v>22841.697247706423</v>
       </c>
       <c r="U7">
-        <v>1423</v>
+        <v>22935.954128440368</v>
       </c>
       <c r="V7">
-        <v>1406</v>
+        <v>22927.83486238532</v>
       </c>
       <c r="W7">
-        <v>1399</v>
+        <v>22808.903669724772</v>
       </c>
       <c r="X7">
-        <v>1411</v>
+        <v>22878.362385321099</v>
       </c>
       <c r="Y7">
-        <v>1412</v>
+        <v>22852.926605504588</v>
       </c>
       <c r="Z7">
-        <v>1409</v>
+        <v>22956.426605504588</v>
       </c>
       <c r="AA7">
-        <v>1418</v>
+        <v>22889.215596330276</v>
       </c>
       <c r="AB7">
-        <v>1415</v>
+        <v>22848.811926605504</v>
       </c>
       <c r="AC7">
-        <v>1420</v>
+        <v>22842.591743119268</v>
       </c>
       <c r="AD7">
-        <v>1420</v>
+        <v>22896.288990825688</v>
       </c>
       <c r="AE7">
-        <v>1407</v>
+        <v>22892.85779816514</v>
       </c>
       <c r="AF7">
-        <v>1428</v>
+        <v>22904.949541284404</v>
       </c>
       <c r="AG7">
-        <v>1413</v>
+        <v>22841.344036697246</v>
       </c>
       <c r="AH7">
-        <v>1409</v>
+        <v>22730.573394495412</v>
       </c>
       <c r="AI7">
-        <v>1419</v>
+        <v>22746.811926605504</v>
       </c>
       <c r="AJ7">
-        <v>1412</v>
+        <v>22768.068807339452</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1312,100 +1340,100 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>751</v>
+        <v>10262.41743119266</v>
       </c>
       <c r="G8">
-        <v>596</v>
+        <v>9924.2981651376158</v>
       </c>
       <c r="H8">
-        <v>582</v>
+        <v>9989.7981651376158</v>
       </c>
       <c r="I8">
-        <v>590</v>
+        <v>9916.5229357798162</v>
       </c>
       <c r="J8">
-        <v>608</v>
+        <v>9999.8256880733934</v>
       </c>
       <c r="K8">
-        <v>592</v>
+        <v>9938.0504587155974</v>
       </c>
       <c r="L8">
-        <v>600</v>
+        <v>9898.0183486238511</v>
       </c>
       <c r="M8">
-        <v>581</v>
+        <v>9925.5871559633015</v>
       </c>
       <c r="N8">
-        <v>598</v>
+        <v>9957.1055045871562</v>
       </c>
       <c r="O8">
-        <v>608</v>
+        <v>9986.0458715596342</v>
       </c>
       <c r="P8">
-        <v>590</v>
+        <v>9906.4311926605515</v>
       </c>
       <c r="Q8">
-        <v>583</v>
+        <v>9903.3302752293584</v>
       </c>
       <c r="R8">
-        <v>583</v>
+        <v>9924.0458715596324</v>
       </c>
       <c r="S8">
-        <v>587</v>
+        <v>9879.1559633027518</v>
       </c>
       <c r="T8">
-        <v>590</v>
+        <v>9934.3899082568823</v>
       </c>
       <c r="U8">
-        <v>583</v>
+        <v>9890.1055045871581</v>
       </c>
       <c r="V8">
-        <v>590</v>
+        <v>9935.0229357798162</v>
       </c>
       <c r="W8">
-        <v>591</v>
+        <v>9894.8119266055055</v>
       </c>
       <c r="X8">
-        <v>584</v>
+        <v>9928.4266055045864</v>
       </c>
       <c r="Y8">
-        <v>580</v>
+        <v>9898.7110091743107</v>
       </c>
       <c r="Z8">
-        <v>592</v>
+        <v>9890.619266055046</v>
       </c>
       <c r="AA8">
-        <v>585</v>
+        <v>9900.0596330275221</v>
       </c>
       <c r="AB8">
-        <v>584</v>
+        <v>9885.2981651376158</v>
       </c>
       <c r="AC8">
-        <v>582</v>
+        <v>9864.701834862386</v>
       </c>
       <c r="AD8">
-        <v>591</v>
+        <v>9875.8027522935772</v>
       </c>
       <c r="AE8">
-        <v>591</v>
+        <v>9915.6743119266066</v>
       </c>
       <c r="AF8">
-        <v>593</v>
+        <v>9893.5183486238529</v>
       </c>
       <c r="AG8">
-        <v>581</v>
+        <v>9918.3761467889908</v>
       </c>
       <c r="AH8">
-        <v>583</v>
+        <v>9898.3761467889926</v>
       </c>
       <c r="AI8">
-        <v>592</v>
+        <v>9911.779816513761</v>
       </c>
       <c r="AJ8">
-        <v>592</v>
+        <v>9914.5229357798162</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1422,100 +1450,100 @@
         <v>75</v>
       </c>
       <c r="F9">
-        <v>951</v>
+        <v>16083.798165137616</v>
       </c>
       <c r="G9">
-        <v>828</v>
+        <v>16155.330275229357</v>
       </c>
       <c r="H9">
-        <v>851</v>
+        <v>16168.48623853211</v>
       </c>
       <c r="I9">
-        <v>837</v>
+        <v>16095.013761467892</v>
       </c>
       <c r="J9">
-        <v>845</v>
+        <v>16113.09633027523</v>
       </c>
       <c r="K9">
-        <v>853</v>
+        <v>16141.458715596327</v>
       </c>
       <c r="L9">
-        <v>834</v>
+        <v>16147.610091743118</v>
       </c>
       <c r="M9">
-        <v>842.99999999999989</v>
+        <v>16106.683486238531</v>
       </c>
       <c r="N9">
-        <v>840</v>
+        <v>16147.472477064221</v>
       </c>
       <c r="O9">
-        <v>849.99999999999989</v>
+        <v>16126.472477064221</v>
       </c>
       <c r="P9">
-        <v>849.99999999999989</v>
+        <v>16084.59633027523</v>
       </c>
       <c r="Q9">
-        <v>835</v>
+        <v>16074.701834862384</v>
       </c>
       <c r="R9">
-        <v>835</v>
+        <v>16078.802752293577</v>
       </c>
       <c r="S9">
-        <v>823.00000000000011</v>
+        <v>16090.816513761469</v>
       </c>
       <c r="T9">
-        <v>833</v>
+        <v>16066.087155963305</v>
       </c>
       <c r="U9">
-        <v>825</v>
+        <v>16059.963302752292</v>
       </c>
       <c r="V9">
-        <v>831</v>
+        <v>16073.807339449542</v>
       </c>
       <c r="W9">
-        <v>835</v>
+        <v>16053.399082568809</v>
       </c>
       <c r="X9">
-        <v>839</v>
+        <v>16080.42660550459</v>
       </c>
       <c r="Y9">
-        <v>824</v>
+        <v>16071.715596330274</v>
       </c>
       <c r="Z9">
-        <v>836</v>
+        <v>16072.059633027524</v>
       </c>
       <c r="AA9">
-        <v>833</v>
+        <v>16096.651376146789</v>
       </c>
       <c r="AB9">
-        <v>833</v>
+        <v>16087.967889908256</v>
       </c>
       <c r="AC9">
-        <v>822</v>
+        <v>16127.573394495414</v>
       </c>
       <c r="AD9">
-        <v>840</v>
+        <v>16082.463302752292</v>
       </c>
       <c r="AE9">
-        <v>827</v>
+        <v>16114.568807339449</v>
       </c>
       <c r="AF9">
-        <v>829</v>
+        <v>16072.58256880734</v>
       </c>
       <c r="AG9">
-        <v>822</v>
+        <v>16100.944954128441</v>
       </c>
       <c r="AH9">
-        <v>830</v>
+        <v>16052.80733944954</v>
       </c>
       <c r="AI9">
-        <v>841</v>
+        <v>16092.192660550458</v>
       </c>
       <c r="AJ9">
-        <v>835</v>
+        <v>16065.990825688074</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1532,100 +1560,100 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>1197</v>
+        <v>21664.706422018349</v>
       </c>
       <c r="G10">
-        <v>1105</v>
+        <v>21690.977064220184</v>
       </c>
       <c r="H10">
-        <v>1105</v>
+        <v>21719.394495412846</v>
       </c>
       <c r="I10">
-        <v>1109</v>
+        <v>21711.729357798165</v>
       </c>
       <c r="J10">
-        <v>1100</v>
+        <v>21671.036697247706</v>
       </c>
       <c r="K10">
-        <v>1098</v>
+        <v>21729.385321100919</v>
       </c>
       <c r="L10">
-        <v>1094</v>
+        <v>21669.660550458717</v>
       </c>
       <c r="M10">
-        <v>1098</v>
+        <v>21696.192660550456</v>
       </c>
       <c r="N10">
-        <v>1100</v>
+        <v>21671.559633027522</v>
       </c>
       <c r="O10">
-        <v>1096</v>
+        <v>21679.596330275228</v>
       </c>
       <c r="P10">
-        <v>1107</v>
+        <v>21691.69266055046</v>
       </c>
       <c r="Q10">
-        <v>1091</v>
+        <v>21665.174311926607</v>
       </c>
       <c r="R10">
-        <v>1088</v>
+        <v>21657.729357798165</v>
       </c>
       <c r="S10">
-        <v>1091</v>
+        <v>21678.371559633029</v>
       </c>
       <c r="T10">
-        <v>1090</v>
+        <v>21614.752293577982</v>
       </c>
       <c r="U10">
-        <v>1098</v>
+        <v>21637.995412844037</v>
       </c>
       <c r="V10">
-        <v>1096</v>
+        <v>21613.252293577982</v>
       </c>
       <c r="W10">
-        <v>1088</v>
+        <v>21615.825688073393</v>
       </c>
       <c r="X10">
-        <v>1091</v>
+        <v>21641.724770642202</v>
       </c>
       <c r="Y10">
-        <v>1093</v>
+        <v>21648.577981651379</v>
       </c>
       <c r="Z10">
-        <v>1086</v>
+        <v>21649.85779816514</v>
       </c>
       <c r="AA10">
-        <v>1090</v>
+        <v>21636.096330275228</v>
       </c>
       <c r="AB10">
-        <v>1089</v>
+        <v>21671.449541284404</v>
       </c>
       <c r="AC10">
-        <v>1093</v>
+        <v>21673.885321100919</v>
       </c>
       <c r="AD10">
-        <v>1093</v>
+        <v>21621.220183486239</v>
       </c>
       <c r="AE10">
-        <v>1087</v>
+        <v>21580.197247706426</v>
       </c>
       <c r="AF10">
-        <v>1078</v>
+        <v>21665.201834862386</v>
       </c>
       <c r="AG10">
-        <v>1079</v>
+        <v>21672.316513761467</v>
       </c>
       <c r="AH10">
-        <v>1093</v>
+        <v>21636.729357798165</v>
       </c>
       <c r="AI10">
-        <v>1092</v>
+        <v>21621.825688073393</v>
       </c>
       <c r="AJ10">
-        <v>1087</v>
+        <v>21665.422018348625</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1642,100 +1670,100 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>1070</v>
+        <v>9344.3348623853217</v>
       </c>
       <c r="G11">
-        <v>771</v>
+        <v>9059.3394495412849</v>
       </c>
       <c r="H11">
-        <v>779</v>
+        <v>9052.4174311926618</v>
       </c>
       <c r="I11">
-        <v>756</v>
+        <v>9126.1467889908254</v>
       </c>
       <c r="J11">
-        <v>769</v>
+        <v>9058.802752293579</v>
       </c>
       <c r="K11">
-        <v>761</v>
+        <v>9041.2981651376158</v>
       </c>
       <c r="L11">
-        <v>762</v>
+        <v>9066.9357798165129</v>
       </c>
       <c r="M11">
-        <v>759</v>
+        <v>9057.8119266055037</v>
       </c>
       <c r="N11">
-        <v>765</v>
+        <v>9042.0825688073401</v>
       </c>
       <c r="O11">
-        <v>764</v>
+        <v>9064.3211009174302</v>
       </c>
       <c r="P11">
-        <v>744</v>
+        <v>9080.596330275228</v>
       </c>
       <c r="Q11">
-        <v>748</v>
+        <v>9062.2293577981654</v>
       </c>
       <c r="R11">
-        <v>748</v>
+        <v>9062.3669724770643</v>
       </c>
       <c r="S11">
-        <v>741</v>
+        <v>9055.7614678899081</v>
       </c>
       <c r="T11">
-        <v>734</v>
+        <v>9054.9357798165147</v>
       </c>
       <c r="U11">
-        <v>751</v>
+        <v>9046.2798165137629</v>
       </c>
       <c r="V11">
-        <v>750</v>
+        <v>9013.3623853211011</v>
       </c>
       <c r="W11">
-        <v>751</v>
+        <v>9028.1697247706416</v>
       </c>
       <c r="X11">
-        <v>737</v>
+        <v>9050.779816513761</v>
       </c>
       <c r="Y11">
-        <v>751</v>
+        <v>9015.4403669724779</v>
       </c>
       <c r="Z11">
-        <v>751</v>
+        <v>9040.5550458715588</v>
       </c>
       <c r="AA11">
-        <v>752</v>
+        <v>9066.8394495412849</v>
       </c>
       <c r="AB11">
-        <v>754</v>
+        <v>9044.6926605504595</v>
       </c>
       <c r="AC11">
-        <v>750</v>
+        <v>9030.2614678899081</v>
       </c>
       <c r="AD11">
-        <v>751</v>
+        <v>9065.7385321100937</v>
       </c>
       <c r="AE11">
-        <v>741</v>
+        <v>9047.0504587155956</v>
       </c>
       <c r="AF11">
-        <v>749</v>
+        <v>9064.9266055045864</v>
       </c>
       <c r="AG11">
-        <v>751</v>
+        <v>9025.5688073394485</v>
       </c>
       <c r="AH11">
-        <v>750</v>
+        <v>9055.0458715596324</v>
       </c>
       <c r="AI11">
-        <v>751</v>
+        <v>9046.9816513761471</v>
       </c>
       <c r="AJ11">
-        <v>753</v>
+        <v>9037.1972477064228</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1752,100 +1780,100 @@
         <v>75</v>
       </c>
       <c r="F12">
-        <v>1440</v>
+        <v>15761.848623853211</v>
       </c>
       <c r="G12">
-        <v>1157</v>
+        <v>15743.394495412844</v>
       </c>
       <c r="H12">
-        <v>1151</v>
+        <v>15736.56880733945</v>
       </c>
       <c r="I12">
-        <v>1152</v>
+        <v>15698.779816513763</v>
       </c>
       <c r="J12">
-        <v>1156</v>
+        <v>15726.206422018347</v>
       </c>
       <c r="K12">
-        <v>1174</v>
+        <v>15684.275229357798</v>
       </c>
       <c r="L12">
-        <v>1158</v>
+        <v>15686.380733944956</v>
       </c>
       <c r="M12">
-        <v>1155</v>
+        <v>15755.876146788993</v>
       </c>
       <c r="N12">
-        <v>1160</v>
+        <v>15714.412844036695</v>
       </c>
       <c r="O12">
-        <v>1178</v>
+        <v>15747.178899082572</v>
       </c>
       <c r="P12">
-        <v>1163</v>
+        <v>15693.055045871561</v>
       </c>
       <c r="Q12">
-        <v>1150</v>
+        <v>15704.284403669726</v>
       </c>
       <c r="R12">
-        <v>1154</v>
+        <v>15694.775229357798</v>
       </c>
       <c r="S12">
-        <v>1156</v>
+        <v>15720.261467889908</v>
       </c>
       <c r="T12">
-        <v>1144</v>
+        <v>15692.256880733947</v>
       </c>
       <c r="U12">
-        <v>1134</v>
+        <v>15699.674311926607</v>
       </c>
       <c r="V12">
-        <v>1158</v>
+        <v>15697.376146788993</v>
       </c>
       <c r="W12">
-        <v>1157</v>
+        <v>15687.344036697248</v>
       </c>
       <c r="X12">
-        <v>1145</v>
+        <v>15686.642201834862</v>
       </c>
       <c r="Y12">
-        <v>1152</v>
+        <v>15696.949541284404</v>
       </c>
       <c r="Z12">
-        <v>1150</v>
+        <v>15693.096330275228</v>
       </c>
       <c r="AA12">
-        <v>1153</v>
+        <v>15698.862385321099</v>
       </c>
       <c r="AB12">
-        <v>1147</v>
+        <v>15702.770642201835</v>
       </c>
       <c r="AC12">
-        <v>1147</v>
+        <v>15713.105504587156</v>
       </c>
       <c r="AD12">
-        <v>1159</v>
+        <v>15687.316513761467</v>
       </c>
       <c r="AE12">
-        <v>1148</v>
+        <v>15677.298165137612</v>
       </c>
       <c r="AF12">
-        <v>1139</v>
+        <v>15690.481651376145</v>
       </c>
       <c r="AG12">
-        <v>1161</v>
+        <v>15702.371559633028</v>
       </c>
       <c r="AH12">
-        <v>1155</v>
+        <v>15682.967889908256</v>
       </c>
       <c r="AI12">
-        <v>1163</v>
+        <v>15675.743119266055</v>
       </c>
       <c r="AJ12">
-        <v>1157</v>
+        <v>15713.98623853211</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1862,100 +1890,100 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <v>1579</v>
+        <v>23576.876146788993</v>
       </c>
       <c r="G13">
-        <v>1459</v>
+        <v>23581.816513761467</v>
       </c>
       <c r="H13">
-        <v>1474</v>
+        <v>23620.788990825688</v>
       </c>
       <c r="I13">
-        <v>1476</v>
+        <v>23606.325688073397</v>
       </c>
       <c r="J13">
-        <v>1459</v>
+        <v>23529.330275229357</v>
       </c>
       <c r="K13">
-        <v>1466</v>
+        <v>23557.30733944954</v>
       </c>
       <c r="L13">
-        <v>1504</v>
+        <v>23615.174311926603</v>
       </c>
       <c r="M13">
-        <v>1485</v>
+        <v>23578.678899082566</v>
       </c>
       <c r="N13">
-        <v>1469</v>
+        <v>23588.091743119265</v>
       </c>
       <c r="O13">
-        <v>1478</v>
+        <v>23573.917431192662</v>
       </c>
       <c r="P13">
-        <v>1467</v>
+        <v>23560.321100917434</v>
       </c>
       <c r="Q13">
-        <v>1440</v>
+        <v>23567.83486238532</v>
       </c>
       <c r="R13">
-        <v>1474</v>
+        <v>23557.045871559636</v>
       </c>
       <c r="S13">
-        <v>1460</v>
+        <v>23525.133027522937</v>
       </c>
       <c r="T13">
-        <v>1465</v>
+        <v>23544.385321100915</v>
       </c>
       <c r="U13">
-        <v>1450</v>
+        <v>23536.128440366971</v>
       </c>
       <c r="V13">
-        <v>1460</v>
+        <v>23554.665137614676</v>
       </c>
       <c r="W13">
-        <v>1457</v>
+        <v>23544.206422018353</v>
       </c>
       <c r="X13">
-        <v>1449</v>
+        <v>23558.752293577982</v>
       </c>
       <c r="Y13">
-        <v>1456</v>
+        <v>23516.325688073397</v>
       </c>
       <c r="Z13">
-        <v>1460</v>
+        <v>23537.766055045871</v>
       </c>
       <c r="AA13">
-        <v>1442</v>
+        <v>23569.513761467893</v>
       </c>
       <c r="AB13">
-        <v>1455</v>
+        <v>23561.917431192662</v>
       </c>
       <c r="AC13">
-        <v>1460</v>
+        <v>23550.385321100915</v>
       </c>
       <c r="AD13">
-        <v>1445</v>
+        <v>23556.068807339449</v>
       </c>
       <c r="AE13">
-        <v>1436</v>
+        <v>23545.665137614676</v>
       </c>
       <c r="AF13">
-        <v>1446</v>
+        <v>23529.35779816514</v>
       </c>
       <c r="AG13">
-        <v>1454</v>
+        <v>23554.995412844037</v>
       </c>
       <c r="AH13">
-        <v>1458</v>
+        <v>23539.114678899081</v>
       </c>
       <c r="AI13">
-        <v>1455</v>
+        <v>23541.811926605504</v>
       </c>
       <c r="AJ13">
-        <v>1456</v>
+        <v>23576.298165137618</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1972,100 +2000,100 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>711</v>
+        <v>8405.0550458715607</v>
       </c>
       <c r="G14">
-        <v>584</v>
+        <v>8292.2155963302757</v>
       </c>
       <c r="H14">
-        <v>562</v>
+        <v>8381.8348623853217</v>
       </c>
       <c r="I14">
-        <v>569</v>
+        <v>8350.1880733944963</v>
       </c>
       <c r="J14">
-        <v>581</v>
+        <v>8287.2844036697243</v>
       </c>
       <c r="K14">
-        <v>595</v>
+        <v>8268.7385321100919</v>
       </c>
       <c r="L14">
-        <v>563</v>
+        <v>8285.6376146788989</v>
       </c>
       <c r="M14">
-        <v>589</v>
+        <v>8330.7339449541287</v>
       </c>
       <c r="N14">
-        <v>577</v>
+        <v>8266.5091743119265</v>
       </c>
       <c r="O14">
-        <v>579</v>
+        <v>8261.7935779816507</v>
       </c>
       <c r="P14">
-        <v>574</v>
+        <v>8333.1467889908254</v>
       </c>
       <c r="Q14">
-        <v>559</v>
+        <v>8207.9082568807335</v>
       </c>
       <c r="R14">
-        <v>565</v>
+        <v>8238.9036697247702</v>
       </c>
       <c r="S14">
-        <v>563</v>
+        <v>8266.9954128440368</v>
       </c>
       <c r="T14">
-        <v>569</v>
+        <v>8215.9311926605496</v>
       </c>
       <c r="U14">
-        <v>568</v>
+        <v>8261.6055045871562</v>
       </c>
       <c r="V14">
-        <v>563</v>
+        <v>8225.619266055046</v>
       </c>
       <c r="W14">
-        <v>557</v>
+        <v>8248.577981651375</v>
       </c>
       <c r="X14">
-        <v>567</v>
+        <v>8257.7522935779816</v>
       </c>
       <c r="Y14">
-        <v>558</v>
+        <v>8215.2935779816507</v>
       </c>
       <c r="Z14">
-        <v>555</v>
+        <v>8199.7339449541287</v>
       </c>
       <c r="AA14">
-        <v>559</v>
+        <v>8194.9816513761471</v>
       </c>
       <c r="AB14">
-        <v>569</v>
+        <v>8244.9908256880735</v>
       </c>
       <c r="AC14">
-        <v>559</v>
+        <v>8219.6467889908254</v>
       </c>
       <c r="AD14">
-        <v>565</v>
+        <v>8195.8211009174302</v>
       </c>
       <c r="AE14">
-        <v>563</v>
+        <v>8204.8486238532114</v>
       </c>
       <c r="AF14">
-        <v>563</v>
+        <v>8226.3532110091746</v>
       </c>
       <c r="AG14">
-        <v>564</v>
+        <v>8232.600917431193</v>
       </c>
       <c r="AH14">
-        <v>562</v>
+        <v>8276.4633027522941</v>
       </c>
       <c r="AI14">
-        <v>571</v>
+        <v>8250.3394495412849</v>
       </c>
       <c r="AJ14">
-        <v>550</v>
+        <v>8263.6697247706434</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2082,100 +2110,100 @@
         <v>75</v>
       </c>
       <c r="F15">
-        <v>922.00000000000011</v>
+        <v>15471.692660550458</v>
       </c>
       <c r="G15">
-        <v>797</v>
+        <v>15515.564220183485</v>
       </c>
       <c r="H15">
-        <v>808</v>
+        <v>15507.871559633024</v>
       </c>
       <c r="I15">
-        <v>804</v>
+        <v>15534.045871559631</v>
       </c>
       <c r="J15">
-        <v>792</v>
+        <v>15469.270642201838</v>
       </c>
       <c r="K15">
-        <v>792</v>
+        <v>15585.183486238531</v>
       </c>
       <c r="L15">
-        <v>803</v>
+        <v>15611.490825688074</v>
       </c>
       <c r="M15">
-        <v>805</v>
+        <v>15514.077981651377</v>
       </c>
       <c r="N15">
-        <v>798</v>
+        <v>15545.990825688074</v>
       </c>
       <c r="O15">
-        <v>820</v>
+        <v>15508.128440366974</v>
       </c>
       <c r="P15">
-        <v>809</v>
+        <v>15583.711009174309</v>
       </c>
       <c r="Q15">
-        <v>798</v>
+        <v>15497.784403669724</v>
       </c>
       <c r="R15">
-        <v>790</v>
+        <v>15491.30733944954</v>
       </c>
       <c r="S15">
-        <v>794</v>
+        <v>15441.284403669724</v>
       </c>
       <c r="T15">
-        <v>787</v>
+        <v>15471.600917431195</v>
       </c>
       <c r="U15">
-        <v>791</v>
+        <v>15476.848623853211</v>
       </c>
       <c r="V15">
-        <v>787</v>
+        <v>15498.949541284404</v>
       </c>
       <c r="W15">
-        <v>791</v>
+        <v>15516.422018348621</v>
       </c>
       <c r="X15">
-        <v>781</v>
+        <v>15495.839449541281</v>
       </c>
       <c r="Y15">
-        <v>792</v>
+        <v>15437.788990825688</v>
       </c>
       <c r="Z15">
-        <v>789</v>
+        <v>15462.380733944952</v>
       </c>
       <c r="AA15">
-        <v>778</v>
+        <v>15543.059633027524</v>
       </c>
       <c r="AB15">
-        <v>792</v>
+        <v>15522.568807339452</v>
       </c>
       <c r="AC15">
-        <v>786</v>
+        <v>15450.967889908256</v>
       </c>
       <c r="AD15">
-        <v>778</v>
+        <v>15504.779816513761</v>
       </c>
       <c r="AE15">
-        <v>794</v>
+        <v>15510.793577981653</v>
       </c>
       <c r="AF15">
-        <v>765</v>
+        <v>15492.036697247704</v>
       </c>
       <c r="AG15">
-        <v>786</v>
+        <v>15513.665137614678</v>
       </c>
       <c r="AH15">
-        <v>796</v>
+        <v>15480.490825688072</v>
       </c>
       <c r="AI15">
-        <v>793</v>
+        <v>15468.522935779816</v>
       </c>
       <c r="AJ15">
-        <v>777</v>
+        <v>15459.34862385321</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2192,100 +2220,100 @@
         <v>100</v>
       </c>
       <c r="F16">
-        <v>1128</v>
+        <v>21313.045871559632</v>
       </c>
       <c r="G16">
-        <v>992</v>
+        <v>21543.885321100919</v>
       </c>
       <c r="H16">
-        <v>1015</v>
+        <v>21444.472477064221</v>
       </c>
       <c r="I16">
-        <v>992</v>
+        <v>21524.532110091743</v>
       </c>
       <c r="J16">
-        <v>1021.9999999999999</v>
+        <v>21381.48623853211</v>
       </c>
       <c r="K16">
-        <v>982.00000000000011</v>
+        <v>21444.311926605507</v>
       </c>
       <c r="L16">
-        <v>1010</v>
+        <v>21505.238532110088</v>
       </c>
       <c r="M16">
-        <v>1027</v>
+        <v>21482.215596330276</v>
       </c>
       <c r="N16">
-        <v>1000</v>
+        <v>21571.779816513761</v>
       </c>
       <c r="O16">
-        <v>989</v>
+        <v>21395.926605504588</v>
       </c>
       <c r="P16">
-        <v>997</v>
+        <v>21461.004587155963</v>
       </c>
       <c r="Q16">
-        <v>980</v>
+        <v>21476.403669724768</v>
       </c>
       <c r="R16">
-        <v>988</v>
+        <v>21510.160550458717</v>
       </c>
       <c r="S16">
-        <v>986</v>
+        <v>21428.160550458717</v>
       </c>
       <c r="T16">
-        <v>989</v>
+        <v>21443.596330275228</v>
       </c>
       <c r="U16">
-        <v>982.00000000000011</v>
+        <v>21333.110091743118</v>
       </c>
       <c r="V16">
-        <v>992</v>
+        <v>21353.247706422018</v>
       </c>
       <c r="W16">
-        <v>992</v>
+        <v>21415.889908256882</v>
       </c>
       <c r="X16">
-        <v>994.00000000000011</v>
+        <v>21414.422018348625</v>
       </c>
       <c r="Y16">
-        <v>982.99999999999989</v>
+        <v>21410.243119266052</v>
       </c>
       <c r="Z16">
-        <v>978</v>
+        <v>21416.389908256882</v>
       </c>
       <c r="AA16">
-        <v>994.99999999999989</v>
+        <v>21405.394495412846</v>
       </c>
       <c r="AB16">
-        <v>989</v>
+        <v>21400.077981651379</v>
       </c>
       <c r="AC16">
-        <v>982.99999999999989</v>
+        <v>21374.559633027526</v>
       </c>
       <c r="AD16">
-        <v>984</v>
+        <v>21453.105504587158</v>
       </c>
       <c r="AE16">
-        <v>991.00000000000011</v>
+        <v>21367.256880733945</v>
       </c>
       <c r="AF16">
-        <v>986.99999999999989</v>
+        <v>21405.426605504588</v>
       </c>
       <c r="AG16">
-        <v>993</v>
+        <v>21381.220183486235</v>
       </c>
       <c r="AH16">
-        <v>990.00000000000011</v>
+        <v>21419.403669724768</v>
       </c>
       <c r="AI16">
-        <v>994.00000000000011</v>
+        <v>21392.834862385324</v>
       </c>
       <c r="AJ16">
-        <v>991.00000000000011</v>
+        <v>21411.137614678901</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2302,100 +2330,100 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>540</v>
+        <v>8826.6605504587169</v>
       </c>
       <c r="G17">
-        <v>467.00000000000006</v>
+        <v>8673.3853211009173</v>
       </c>
       <c r="H17">
-        <v>476.99999999999994</v>
+        <v>8642.5596330275221</v>
       </c>
       <c r="I17">
-        <v>460</v>
+        <v>8684.3394495412849</v>
       </c>
       <c r="J17">
-        <v>508</v>
+        <v>8696.3256880733934</v>
       </c>
       <c r="K17">
-        <v>481</v>
+        <v>8674.4862385321103</v>
       </c>
       <c r="L17">
-        <v>472.99999999999994</v>
+        <v>8673.7339449541287</v>
       </c>
       <c r="M17">
-        <v>488</v>
+        <v>8698.596330275228</v>
       </c>
       <c r="N17">
-        <v>485.99999999999994</v>
+        <v>8691</v>
       </c>
       <c r="O17">
-        <v>460</v>
+        <v>8705.5504587155956</v>
       </c>
       <c r="P17">
-        <v>486.99999999999994</v>
+        <v>8689.3853211009173</v>
       </c>
       <c r="Q17">
-        <v>468.00000000000006</v>
+        <v>8645.1467889908254</v>
       </c>
       <c r="R17">
-        <v>472.99999999999994</v>
+        <v>8643.9082568807335</v>
       </c>
       <c r="S17">
-        <v>463</v>
+        <v>8658.119266055046</v>
       </c>
       <c r="T17">
-        <v>468.00000000000006</v>
+        <v>8655.7706422018346</v>
       </c>
       <c r="U17">
-        <v>471</v>
+        <v>8669.9816513761471</v>
       </c>
       <c r="V17">
-        <v>464</v>
+        <v>8644.6055045871562</v>
       </c>
       <c r="W17">
-        <v>461.99999999999994</v>
+        <v>8638.2477064220184</v>
       </c>
       <c r="X17">
-        <v>461.00000000000006</v>
+        <v>8634.4495412844044</v>
       </c>
       <c r="Y17">
-        <v>464</v>
+        <v>8628.2935779816526</v>
       </c>
       <c r="Z17">
-        <v>455</v>
+        <v>8646.4128440366967</v>
       </c>
       <c r="AA17">
-        <v>467.00000000000006</v>
+        <v>8647.8623853210993</v>
       </c>
       <c r="AB17">
-        <v>444</v>
+        <v>8659.6972477064228</v>
       </c>
       <c r="AC17">
-        <v>463</v>
+        <v>8645.8623853211029</v>
       </c>
       <c r="AD17">
-        <v>465.00000000000006</v>
+        <v>8658.2660550458713</v>
       </c>
       <c r="AE17">
-        <v>467.00000000000006</v>
+        <v>8648.6146788990809</v>
       </c>
       <c r="AF17">
-        <v>471</v>
+        <v>8642.0091743119265</v>
       </c>
       <c r="AG17">
-        <v>447.99999999999994</v>
+        <v>8637.0550458715607</v>
       </c>
       <c r="AH17">
-        <v>457</v>
+        <v>8652.8165137614687</v>
       </c>
       <c r="AI17">
-        <v>459</v>
+        <v>8648.6055045871562</v>
       </c>
       <c r="AJ17">
-        <v>468.00000000000006</v>
+        <v>8638.403669724772</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2412,100 +2440,100 @@
         <v>75</v>
       </c>
       <c r="F18">
-        <v>820</v>
+        <v>14767.426605504586</v>
       </c>
       <c r="G18">
-        <v>664</v>
+        <v>14558.463302752294</v>
       </c>
       <c r="H18">
-        <v>676</v>
+        <v>14554.25229357798</v>
       </c>
       <c r="I18">
-        <v>693</v>
+        <v>14566.596330275228</v>
       </c>
       <c r="J18">
-        <v>650</v>
+        <v>14568.220183486239</v>
       </c>
       <c r="K18">
-        <v>695</v>
+        <v>14635.908256880733</v>
       </c>
       <c r="L18">
-        <v>655</v>
+        <v>14591.564220183483</v>
       </c>
       <c r="M18">
-        <v>670</v>
+        <v>14519.504587155963</v>
       </c>
       <c r="N18">
-        <v>676</v>
+        <v>14596.871559633026</v>
       </c>
       <c r="O18">
-        <v>694</v>
+        <v>14608.174311926605</v>
       </c>
       <c r="P18">
-        <v>673</v>
+        <v>14619.981651376147</v>
       </c>
       <c r="Q18">
-        <v>657</v>
+        <v>14493.995412844037</v>
       </c>
       <c r="R18">
-        <v>665</v>
+        <v>14528.045871559634</v>
       </c>
       <c r="S18">
-        <v>661</v>
+        <v>14489.889908256879</v>
       </c>
       <c r="T18">
-        <v>654</v>
+        <v>14501.449541284404</v>
       </c>
       <c r="U18">
-        <v>655</v>
+        <v>14531.055045871562</v>
       </c>
       <c r="V18">
-        <v>655</v>
+        <v>14483.931192660551</v>
       </c>
       <c r="W18">
-        <v>659</v>
+        <v>14502.591743119265</v>
       </c>
       <c r="X18">
-        <v>653</v>
+        <v>14487.032110091746</v>
       </c>
       <c r="Y18">
-        <v>653</v>
+        <v>14538.922018348625</v>
       </c>
       <c r="Z18">
-        <v>652</v>
+        <v>14539.004587155963</v>
       </c>
       <c r="AA18">
-        <v>659</v>
+        <v>14566.151376146789</v>
       </c>
       <c r="AB18">
-        <v>653</v>
+        <v>14522.614678899083</v>
       </c>
       <c r="AC18">
-        <v>660</v>
+        <v>14522.490825688074</v>
       </c>
       <c r="AD18">
-        <v>654</v>
+        <v>14480.178899082568</v>
       </c>
       <c r="AE18">
-        <v>661</v>
+        <v>14525.761467889908</v>
       </c>
       <c r="AF18">
-        <v>652</v>
+        <v>14548.674311926607</v>
       </c>
       <c r="AG18">
-        <v>648</v>
+        <v>14574.30733944954</v>
       </c>
       <c r="AH18">
-        <v>660</v>
+        <v>14496.041284403671</v>
       </c>
       <c r="AI18">
-        <v>647</v>
+        <v>14475.509174311926</v>
       </c>
       <c r="AJ18">
-        <v>657</v>
+        <v>14536.133027522934</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2522,100 +2550,100 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <v>855</v>
+        <v>21339.454128440368</v>
       </c>
       <c r="G19">
-        <v>750</v>
+        <v>21325.018348623853</v>
       </c>
       <c r="H19">
-        <v>737</v>
+        <v>21257.311926605504</v>
       </c>
       <c r="I19">
-        <v>749</v>
+        <v>21242.811926605507</v>
       </c>
       <c r="J19">
-        <v>742</v>
+        <v>21233.215596330276</v>
       </c>
       <c r="K19">
-        <v>756</v>
+        <v>21305.444954128441</v>
       </c>
       <c r="L19">
-        <v>736</v>
+        <v>21249.16513761468</v>
       </c>
       <c r="M19">
-        <v>751</v>
+        <v>21264.385321100915</v>
       </c>
       <c r="N19">
-        <v>753</v>
+        <v>21288.096330275232</v>
       </c>
       <c r="O19">
-        <v>742</v>
+        <v>21290.83486238532</v>
       </c>
       <c r="P19">
-        <v>750</v>
+        <v>21230.944954128441</v>
       </c>
       <c r="Q19">
-        <v>719</v>
+        <v>21198.330275229357</v>
       </c>
       <c r="R19">
-        <v>721</v>
+        <v>21262.279816513765</v>
       </c>
       <c r="S19">
-        <v>730</v>
+        <v>21222.605504587154</v>
       </c>
       <c r="T19">
-        <v>721</v>
+        <v>21235.706422018349</v>
       </c>
       <c r="U19">
-        <v>721</v>
+        <v>21271.65137614679</v>
       </c>
       <c r="V19">
-        <v>730</v>
+        <v>21267.660550458717</v>
       </c>
       <c r="W19">
-        <v>732</v>
+        <v>21250.48623853211</v>
       </c>
       <c r="X19">
-        <v>726</v>
+        <v>21261.247706422022</v>
       </c>
       <c r="Y19">
-        <v>730</v>
+        <v>21254.036697247706</v>
       </c>
       <c r="Z19">
-        <v>730</v>
+        <v>21210.288990825691</v>
       </c>
       <c r="AA19">
-        <v>737</v>
+        <v>21207.839449541283</v>
       </c>
       <c r="AB19">
-        <v>726</v>
+        <v>21221.600917431191</v>
       </c>
       <c r="AC19">
-        <v>725</v>
+        <v>21227.65596330275</v>
       </c>
       <c r="AD19">
-        <v>736</v>
+        <v>21277.018348623857</v>
       </c>
       <c r="AE19">
-        <v>734</v>
+        <v>21266.298165137614</v>
       </c>
       <c r="AF19">
-        <v>720</v>
+        <v>21239.270642201835</v>
       </c>
       <c r="AG19">
-        <v>726</v>
+        <v>21212.298165137614</v>
       </c>
       <c r="AH19">
-        <v>729</v>
+        <v>21235.899082568805</v>
       </c>
       <c r="AI19">
-        <v>729</v>
+        <v>21214.183486238533</v>
       </c>
       <c r="AJ19">
-        <v>724</v>
+        <v>21261.16513761468</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2632,100 +2660,100 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>679</v>
+        <v>9713.8165137614687</v>
       </c>
       <c r="G20">
-        <v>544</v>
+        <v>9489.8486238532096</v>
       </c>
       <c r="H20">
-        <v>525</v>
+        <v>9481.2385321100919</v>
       </c>
       <c r="I20">
-        <v>540</v>
+        <v>9564.3532110091746</v>
       </c>
       <c r="J20">
-        <v>559</v>
+        <v>9503.6926605504577</v>
       </c>
       <c r="K20">
-        <v>537</v>
+        <v>9495.7018348623842</v>
       </c>
       <c r="L20">
-        <v>528</v>
+        <v>9583.7889908256875</v>
       </c>
       <c r="M20">
-        <v>558</v>
+        <v>9507.0733944954118</v>
       </c>
       <c r="N20">
-        <v>578</v>
+        <v>9605.7752293577978</v>
       </c>
       <c r="O20">
-        <v>533</v>
+        <v>9567.9311926605515</v>
       </c>
       <c r="P20">
-        <v>538</v>
+        <v>9507.678899082568</v>
       </c>
       <c r="Q20">
-        <v>540</v>
+        <v>9456.298165137614</v>
       </c>
       <c r="R20">
-        <v>522</v>
+        <v>9462.701834862386</v>
       </c>
       <c r="S20">
-        <v>525</v>
+        <v>9514.4816513761452</v>
       </c>
       <c r="T20">
-        <v>533</v>
+        <v>9457.119266055046</v>
       </c>
       <c r="U20">
-        <v>535</v>
+        <v>9467.4678899082555</v>
       </c>
       <c r="V20">
-        <v>535</v>
+        <v>9464.5917431192647</v>
       </c>
       <c r="W20">
-        <v>509.99999999999994</v>
+        <v>9478.6192660550441</v>
       </c>
       <c r="X20">
-        <v>530</v>
+        <v>9469.7339449541269</v>
       </c>
       <c r="Y20">
-        <v>523</v>
+        <v>9499.3440366972463</v>
       </c>
       <c r="Z20">
-        <v>535</v>
+        <v>9497.4678899082573</v>
       </c>
       <c r="AA20">
-        <v>525</v>
+        <v>9460.0321100917445</v>
       </c>
       <c r="AB20">
-        <v>517</v>
+        <v>9440.9999999999982</v>
       </c>
       <c r="AC20">
-        <v>516</v>
+        <v>9434.6330275229375</v>
       </c>
       <c r="AD20">
-        <v>538</v>
+        <v>9475.4908256880717</v>
       </c>
       <c r="AE20">
-        <v>536</v>
+        <v>9510.2064220183493</v>
       </c>
       <c r="AF20">
-        <v>515</v>
+        <v>9467.8027522935772</v>
       </c>
       <c r="AG20">
-        <v>530</v>
+        <v>9429.5000000000018</v>
       </c>
       <c r="AH20">
-        <v>532</v>
+        <v>9458.7018348623824</v>
       </c>
       <c r="AI20">
-        <v>533</v>
+        <v>9480.5321100917427</v>
       </c>
       <c r="AJ20">
-        <v>530</v>
+        <v>9478.1100917431213</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2742,100 +2770,100 @@
         <v>75</v>
       </c>
       <c r="F21">
-        <v>1178</v>
+        <v>15761.587155963303</v>
       </c>
       <c r="G21">
-        <v>923</v>
+        <v>15689.146788990825</v>
       </c>
       <c r="H21">
-        <v>922.00000000000011</v>
+        <v>15728.967889908257</v>
       </c>
       <c r="I21">
-        <v>955</v>
+        <v>15799.183486238535</v>
       </c>
       <c r="J21">
-        <v>948</v>
+        <v>15749.834862385325</v>
       </c>
       <c r="K21">
-        <v>939</v>
+        <v>15749.408256880733</v>
       </c>
       <c r="L21">
-        <v>928</v>
+        <v>15724.25229357798</v>
       </c>
       <c r="M21">
-        <v>925</v>
+        <v>15745.596330275228</v>
       </c>
       <c r="N21">
-        <v>929</v>
+        <v>15674.174311926605</v>
       </c>
       <c r="O21">
-        <v>928</v>
+        <v>15730.348623853211</v>
       </c>
       <c r="P21">
-        <v>930.00000000000011</v>
+        <v>15763.743119266053</v>
       </c>
       <c r="Q21">
-        <v>929</v>
+        <v>15716.009174311926</v>
       </c>
       <c r="R21">
-        <v>923</v>
+        <v>15692.339449541283</v>
       </c>
       <c r="S21">
-        <v>911.99999999999989</v>
+        <v>15697.623853211011</v>
       </c>
       <c r="T21">
-        <v>916</v>
+        <v>15713.683486238531</v>
       </c>
       <c r="U21">
-        <v>925</v>
+        <v>15691.610091743119</v>
       </c>
       <c r="V21">
-        <v>906</v>
+        <v>15738.233944954127</v>
       </c>
       <c r="W21">
-        <v>929</v>
+        <v>15682.76146788991</v>
       </c>
       <c r="X21">
-        <v>923.99999999999989</v>
+        <v>15712.073394495412</v>
       </c>
       <c r="Y21">
-        <v>920</v>
+        <v>15694.183486238533</v>
       </c>
       <c r="Z21">
-        <v>918</v>
+        <v>15733.353211009175</v>
       </c>
       <c r="AA21">
-        <v>895</v>
+        <v>15757.211009174312</v>
       </c>
       <c r="AB21">
-        <v>926</v>
+        <v>15689.573394495412</v>
       </c>
       <c r="AC21">
-        <v>911.99999999999989</v>
+        <v>15714.24770642202</v>
       </c>
       <c r="AD21">
-        <v>911.00000000000011</v>
+        <v>15706.293577981653</v>
       </c>
       <c r="AE21">
-        <v>907</v>
+        <v>15713.435779816513</v>
       </c>
       <c r="AF21">
-        <v>922.00000000000011</v>
+        <v>15726.454128440366</v>
       </c>
       <c r="AG21">
-        <v>905</v>
+        <v>15748.004587155965</v>
       </c>
       <c r="AH21">
-        <v>913</v>
+        <v>15705.197247706423</v>
       </c>
       <c r="AI21">
-        <v>922.00000000000011</v>
+        <v>15727.995412844035</v>
       </c>
       <c r="AJ21">
-        <v>909.00000000000011</v>
+        <v>15719.600917431193</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2852,100 +2880,100 @@
         <v>100</v>
       </c>
       <c r="F22">
-        <v>1287</v>
+        <v>21965.325688073397</v>
       </c>
       <c r="G22">
-        <v>1075</v>
+        <v>21967.967889908254</v>
       </c>
       <c r="H22">
-        <v>1076</v>
+        <v>21973.857798165136</v>
       </c>
       <c r="I22">
-        <v>1088</v>
+        <v>22028.119266055048</v>
       </c>
       <c r="J22">
-        <v>1051</v>
+        <v>21943.16972477064</v>
       </c>
       <c r="K22">
-        <v>1063</v>
+        <v>22025.628440366971</v>
       </c>
       <c r="L22">
-        <v>1100</v>
+        <v>21999.275229357798</v>
       </c>
       <c r="M22">
-        <v>1088</v>
+        <v>21981.123853211007</v>
       </c>
       <c r="N22">
-        <v>1065</v>
+        <v>21971.697247706423</v>
       </c>
       <c r="O22">
-        <v>1082</v>
+        <v>21962.091743119268</v>
       </c>
       <c r="P22">
-        <v>1098</v>
+        <v>22052.889908256882</v>
       </c>
       <c r="Q22">
-        <v>1077</v>
+        <v>21963.288990825688</v>
       </c>
       <c r="R22">
-        <v>1078</v>
+        <v>22004.711009174312</v>
       </c>
       <c r="S22">
-        <v>1055</v>
+        <v>21925.747706422022</v>
       </c>
       <c r="T22">
-        <v>1054</v>
+        <v>21951.082568807342</v>
       </c>
       <c r="U22">
-        <v>1058</v>
+        <v>21963.619266055048</v>
       </c>
       <c r="V22">
-        <v>1065</v>
+        <v>22024.788990825688</v>
       </c>
       <c r="W22">
-        <v>1071</v>
+        <v>21932.66972477064</v>
       </c>
       <c r="X22">
-        <v>1068</v>
+        <v>22003.15596330275</v>
       </c>
       <c r="Y22">
-        <v>1064</v>
+        <v>21937.004587155963</v>
       </c>
       <c r="Z22">
-        <v>1066</v>
+        <v>21941.972477064221</v>
       </c>
       <c r="AA22">
-        <v>1068</v>
+        <v>21888.330275229357</v>
       </c>
       <c r="AB22">
-        <v>1065</v>
+        <v>21976.472477064217</v>
       </c>
       <c r="AC22">
-        <v>1066</v>
+        <v>21933.055045871559</v>
       </c>
       <c r="AD22">
-        <v>1059</v>
+        <v>21959.229357798165</v>
       </c>
       <c r="AE22">
-        <v>1068</v>
+        <v>21963.412844036695</v>
       </c>
       <c r="AF22">
-        <v>1056</v>
+        <v>21942.522935779813</v>
       </c>
       <c r="AG22">
-        <v>1062</v>
+        <v>21929.889908256879</v>
       </c>
       <c r="AH22">
-        <v>1050</v>
+        <v>21906.275229357798</v>
       </c>
       <c r="AI22">
-        <v>1059</v>
+        <v>21974.518348623857</v>
       </c>
       <c r="AJ22">
-        <v>1059</v>
+        <v>21987.096330275228</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2962,100 +2990,100 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>591</v>
+        <v>9710.9862385321085</v>
       </c>
       <c r="G23">
-        <v>512</v>
+        <v>9356.1284403669724</v>
       </c>
       <c r="H23">
-        <v>483</v>
+        <v>9327.6055045871562</v>
       </c>
       <c r="I23">
-        <v>509.99999999999994</v>
+        <v>9380.5321100917445</v>
       </c>
       <c r="J23">
-        <v>503</v>
+        <v>9349.2798165137592</v>
       </c>
       <c r="K23">
-        <v>519</v>
+        <v>9327.9587155963291</v>
       </c>
       <c r="L23">
-        <v>500</v>
+        <v>9393.9678899082573</v>
       </c>
       <c r="M23">
-        <v>492</v>
+        <v>9351.2385321100919</v>
       </c>
       <c r="N23">
-        <v>495.00000000000006</v>
+        <v>9343.6422018348621</v>
       </c>
       <c r="O23">
-        <v>506</v>
+        <v>9385.798165137614</v>
       </c>
       <c r="P23">
-        <v>493</v>
+        <v>9325.0183486238529</v>
       </c>
       <c r="Q23">
-        <v>484.99999999999994</v>
+        <v>9316.9633027522941</v>
       </c>
       <c r="R23">
-        <v>486.99999999999994</v>
+        <v>9336.7752293577978</v>
       </c>
       <c r="S23">
-        <v>490</v>
+        <v>9314.8256880733934</v>
       </c>
       <c r="T23">
-        <v>491.00000000000006</v>
+        <v>9321.3348623853235</v>
       </c>
       <c r="U23">
-        <v>489</v>
+        <v>9342.6743119266048</v>
       </c>
       <c r="V23">
-        <v>478</v>
+        <v>9327.3256880733952</v>
       </c>
       <c r="W23">
-        <v>492</v>
+        <v>9306.8899082568823</v>
       </c>
       <c r="X23">
-        <v>495.00000000000006</v>
+        <v>9320.201834862386</v>
       </c>
       <c r="Y23">
-        <v>495.00000000000006</v>
+        <v>9302.119266055046</v>
       </c>
       <c r="Z23">
-        <v>500</v>
+        <v>9327.4403669724761</v>
       </c>
       <c r="AA23">
-        <v>499</v>
+        <v>9294.779816513761</v>
       </c>
       <c r="AB23">
-        <v>506</v>
+        <v>9319.8348623853217</v>
       </c>
       <c r="AC23">
-        <v>497.00000000000006</v>
+        <v>9316.6651376146801</v>
       </c>
       <c r="AD23">
-        <v>486.99999999999994</v>
+        <v>9332.7431192660551</v>
       </c>
       <c r="AE23">
-        <v>496</v>
+        <v>9316.7247706422022</v>
       </c>
       <c r="AF23">
-        <v>483.99999999999994</v>
+        <v>9319.6330275229375</v>
       </c>
       <c r="AG23">
-        <v>490</v>
+        <v>9325.2247706422022</v>
       </c>
       <c r="AH23">
-        <v>495.00000000000006</v>
+        <v>9338.2706422018346</v>
       </c>
       <c r="AI23">
-        <v>495.00000000000006</v>
+        <v>9295.3807339449559</v>
       </c>
       <c r="AJ23">
-        <v>494</v>
+        <v>9318.3211009174302</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3072,100 +3100,100 @@
         <v>75</v>
       </c>
       <c r="F24">
-        <v>741</v>
+        <v>14813.706422018349</v>
       </c>
       <c r="G24">
-        <v>607</v>
+        <v>14608.830275229358</v>
       </c>
       <c r="H24">
-        <v>620</v>
+        <v>14584.637614678899</v>
       </c>
       <c r="I24">
-        <v>607</v>
+        <v>14701.697247706423</v>
       </c>
       <c r="J24">
-        <v>581</v>
+        <v>14637.211009174312</v>
       </c>
       <c r="K24">
-        <v>602</v>
+        <v>14733.137614678901</v>
       </c>
       <c r="L24">
-        <v>626</v>
+        <v>14569.743119266055</v>
       </c>
       <c r="M24">
-        <v>591</v>
+        <v>14641.715596330276</v>
       </c>
       <c r="N24">
-        <v>595</v>
+        <v>14719.995412844039</v>
       </c>
       <c r="O24">
-        <v>630</v>
+        <v>14759.137614678901</v>
       </c>
       <c r="P24">
-        <v>588</v>
+        <v>14676.66972477064</v>
       </c>
       <c r="Q24">
-        <v>601</v>
+        <v>14614.013761467888</v>
       </c>
       <c r="R24">
-        <v>584</v>
+        <v>14581.123853211009</v>
       </c>
       <c r="S24">
-        <v>601</v>
+        <v>14617.444954128439</v>
       </c>
       <c r="T24">
-        <v>597</v>
+        <v>14589.986238532108</v>
       </c>
       <c r="U24">
-        <v>587</v>
+        <v>14674.041284403669</v>
       </c>
       <c r="V24">
-        <v>591</v>
+        <v>14638.01376146789</v>
       </c>
       <c r="W24">
-        <v>596</v>
+        <v>14586.830275229357</v>
       </c>
       <c r="X24">
-        <v>586</v>
+        <v>14538.65596330275</v>
       </c>
       <c r="Y24">
-        <v>584</v>
+        <v>14531.298165137614</v>
       </c>
       <c r="Z24">
-        <v>588</v>
+        <v>14661.811926605504</v>
       </c>
       <c r="AA24">
-        <v>591</v>
+        <v>14629.871559633028</v>
       </c>
       <c r="AB24">
-        <v>597</v>
+        <v>14544.899082568807</v>
       </c>
       <c r="AC24">
-        <v>579</v>
+        <v>14613.977064220184</v>
       </c>
       <c r="AD24">
-        <v>593</v>
+        <v>14569.26146788991</v>
       </c>
       <c r="AE24">
-        <v>590</v>
+        <v>14639.302752293577</v>
       </c>
       <c r="AF24">
-        <v>594</v>
+        <v>14672.967889908257</v>
       </c>
       <c r="AG24">
-        <v>601</v>
+        <v>14658.201834862384</v>
       </c>
       <c r="AH24">
-        <v>592</v>
+        <v>14651.036697247708</v>
       </c>
       <c r="AI24">
-        <v>592</v>
+        <v>14644.481651376147</v>
       </c>
       <c r="AJ24">
-        <v>590</v>
+        <v>14632.504587155965</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3182,100 +3210,100 @@
         <v>100</v>
       </c>
       <c r="F25">
-        <v>864</v>
+        <v>21327.036697247706</v>
       </c>
       <c r="G25">
-        <v>807</v>
+        <v>21556.623853211011</v>
       </c>
       <c r="H25">
-        <v>801</v>
+        <v>21544.467889908257</v>
       </c>
       <c r="I25">
-        <v>815</v>
+        <v>21538.504587155963</v>
       </c>
       <c r="J25">
-        <v>827</v>
+        <v>21461.256880733945</v>
       </c>
       <c r="K25">
-        <v>802</v>
+        <v>21590.30733944954</v>
       </c>
       <c r="L25">
-        <v>811</v>
+        <v>21529.366972477063</v>
       </c>
       <c r="M25">
-        <v>814</v>
+        <v>21400.555045871562</v>
       </c>
       <c r="N25">
-        <v>805</v>
+        <v>21674.389908256882</v>
       </c>
       <c r="O25">
-        <v>796</v>
+        <v>21340.16513761468</v>
       </c>
       <c r="P25">
-        <v>824</v>
+        <v>21360.270642201835</v>
       </c>
       <c r="Q25">
-        <v>815</v>
+        <v>21340.674311926607</v>
       </c>
       <c r="R25">
-        <v>805</v>
+        <v>21435.623853211011</v>
       </c>
       <c r="S25">
-        <v>799</v>
+        <v>21397.894495412842</v>
       </c>
       <c r="T25">
-        <v>797</v>
+        <v>21435.967889908257</v>
       </c>
       <c r="U25">
-        <v>804</v>
+        <v>21432.995412844037</v>
       </c>
       <c r="V25">
-        <v>797</v>
+        <v>21459.211009174312</v>
       </c>
       <c r="W25">
-        <v>806</v>
+        <v>21310.784403669724</v>
       </c>
       <c r="X25">
-        <v>788</v>
+        <v>21416.555045871559</v>
       </c>
       <c r="Y25">
-        <v>789</v>
+        <v>21400.403669724772</v>
       </c>
       <c r="Z25">
-        <v>802</v>
+        <v>21508.19266055046</v>
       </c>
       <c r="AA25">
-        <v>785</v>
+        <v>21287.724770642199</v>
       </c>
       <c r="AB25">
-        <v>797</v>
+        <v>21347.596330275232</v>
       </c>
       <c r="AC25">
-        <v>798</v>
+        <v>21469.660550458717</v>
       </c>
       <c r="AD25">
-        <v>785</v>
+        <v>21391.665137614676</v>
       </c>
       <c r="AE25">
-        <v>805</v>
+        <v>21397.784403669724</v>
       </c>
       <c r="AF25">
-        <v>785</v>
+        <v>21366.573394495412</v>
       </c>
       <c r="AG25">
-        <v>800</v>
+        <v>21454.261467889904</v>
       </c>
       <c r="AH25">
-        <v>783</v>
+        <v>21452.33486238532</v>
       </c>
       <c r="AI25">
-        <v>810</v>
+        <v>21386.518348623853</v>
       </c>
       <c r="AJ25">
-        <v>796</v>
+        <v>21376.325688073397</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3292,100 +3320,100 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>480</v>
+        <v>9337.6880733944945</v>
       </c>
       <c r="G26">
-        <v>298</v>
+        <v>9140.6238532110092</v>
       </c>
       <c r="H26">
-        <v>321</v>
+        <v>9204.4770642201838</v>
       </c>
       <c r="I26">
-        <v>335</v>
+        <v>9172.2935779816526</v>
       </c>
       <c r="J26">
-        <v>298</v>
+        <v>9179.1559633027518</v>
       </c>
       <c r="K26">
-        <v>298</v>
+        <v>9145.8165137614669</v>
       </c>
       <c r="L26">
-        <v>301</v>
+        <v>9146.220183486239</v>
       </c>
       <c r="M26">
-        <v>298</v>
+        <v>9129.5045871559632</v>
       </c>
       <c r="N26">
-        <v>307</v>
+        <v>9186.7889908256875</v>
       </c>
       <c r="O26">
-        <v>298</v>
+        <v>9152.779816513761</v>
       </c>
       <c r="P26">
-        <v>298</v>
+        <v>9180.8073394495405</v>
       </c>
       <c r="Q26">
-        <v>298</v>
+        <v>9157.3211009174302</v>
       </c>
       <c r="R26">
-        <v>298</v>
+        <v>9130.6146788990827</v>
       </c>
       <c r="S26">
-        <v>298</v>
+        <v>9134.6605504587169</v>
       </c>
       <c r="T26">
-        <v>298</v>
+        <v>9141.7247706422004</v>
       </c>
       <c r="U26">
-        <v>298</v>
+        <v>9134.5688073394504</v>
       </c>
       <c r="V26">
-        <v>298</v>
+        <v>9131.2660550458713</v>
       </c>
       <c r="W26">
-        <v>298</v>
+        <v>9139.8165137614669</v>
       </c>
       <c r="X26">
-        <v>298</v>
+        <v>9152.1834862385313</v>
       </c>
       <c r="Y26">
-        <v>298</v>
+        <v>9149.1284403669724</v>
       </c>
       <c r="Z26">
-        <v>298</v>
+        <v>9156.0366972477059</v>
       </c>
       <c r="AA26">
-        <v>298</v>
+        <v>9136.119266055046</v>
       </c>
       <c r="AB26">
-        <v>298</v>
+        <v>9140.0733944954136</v>
       </c>
       <c r="AC26">
-        <v>298</v>
+        <v>9148.3302752293584</v>
       </c>
       <c r="AD26">
-        <v>298</v>
+        <v>9142.0733944954118</v>
       </c>
       <c r="AE26">
-        <v>298</v>
+        <v>9097.6330275229357</v>
       </c>
       <c r="AF26">
-        <v>298</v>
+        <v>9153.8348623853199</v>
       </c>
       <c r="AG26">
-        <v>298</v>
+        <v>9151.0825688073401</v>
       </c>
       <c r="AH26">
-        <v>298</v>
+        <v>9138.4220183486232</v>
       </c>
       <c r="AI26">
-        <v>298</v>
+        <v>9130.1651376146783</v>
       </c>
       <c r="AJ26">
-        <v>298</v>
+        <v>9125.2110091743125</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3402,100 +3430,100 @@
         <v>75</v>
       </c>
       <c r="F27">
-        <v>579</v>
+        <v>14867.532110091744</v>
       </c>
       <c r="G27">
-        <v>481</v>
+        <v>14660.275229357798</v>
       </c>
       <c r="H27">
-        <v>483</v>
+        <v>14731.688073394496</v>
       </c>
       <c r="I27">
-        <v>479</v>
+        <v>14800.201834862382</v>
       </c>
       <c r="J27">
-        <v>486.99999999999994</v>
+        <v>14659.110091743119</v>
       </c>
       <c r="K27">
-        <v>499</v>
+        <v>14734.247706422018</v>
       </c>
       <c r="L27">
-        <v>492</v>
+        <v>14675.912844036699</v>
       </c>
       <c r="M27">
-        <v>493</v>
+        <v>14757.56880733945</v>
       </c>
       <c r="N27">
-        <v>500</v>
+        <v>14729.15137614679</v>
       </c>
       <c r="O27">
-        <v>502</v>
+        <v>14635.09633027523</v>
       </c>
       <c r="P27">
-        <v>495.00000000000006</v>
+        <v>14817.353211009176</v>
       </c>
       <c r="Q27">
-        <v>481</v>
+        <v>14715.201834862384</v>
       </c>
       <c r="R27">
-        <v>457</v>
+        <v>14601.133027522934</v>
       </c>
       <c r="S27">
-        <v>467.00000000000006</v>
+        <v>14611.623853211007</v>
       </c>
       <c r="T27">
-        <v>468.00000000000006</v>
+        <v>14648.15137614679</v>
       </c>
       <c r="U27">
-        <v>484.99999999999994</v>
+        <v>14648.233944954127</v>
       </c>
       <c r="V27">
-        <v>485.99999999999994</v>
+        <v>14665.706422018347</v>
       </c>
       <c r="W27">
-        <v>465.00000000000006</v>
+        <v>14641.894495412844</v>
       </c>
       <c r="X27">
-        <v>476.99999999999994</v>
+        <v>14620.394495412844</v>
       </c>
       <c r="Y27">
-        <v>468.00000000000006</v>
+        <v>14572.775229357798</v>
       </c>
       <c r="Z27">
-        <v>469</v>
+        <v>14696.509174311926</v>
       </c>
       <c r="AA27">
-        <v>471</v>
+        <v>14676.600917431191</v>
       </c>
       <c r="AB27">
-        <v>470</v>
+        <v>14651.500000000002</v>
       </c>
       <c r="AC27">
-        <v>472.99999999999994</v>
+        <v>14614.949541284404</v>
       </c>
       <c r="AD27">
-        <v>485.99999999999994</v>
+        <v>14654.903669724772</v>
       </c>
       <c r="AE27">
-        <v>464</v>
+        <v>14565.729357798164</v>
       </c>
       <c r="AF27">
-        <v>481</v>
+        <v>14591.14220183486</v>
       </c>
       <c r="AG27">
-        <v>479</v>
+        <v>14690.908256880733</v>
       </c>
       <c r="AH27">
-        <v>465.00000000000006</v>
+        <v>14633.798165137616</v>
       </c>
       <c r="AI27">
-        <v>476</v>
+        <v>14546.325688073393</v>
       </c>
       <c r="AJ27">
-        <v>480</v>
+        <v>14700.729357798167</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3512,97 +3540,97 @@
         <v>100</v>
       </c>
       <c r="F28">
-        <v>768</v>
+        <v>19279.738532110088</v>
       </c>
       <c r="G28">
-        <v>638</v>
+        <v>18655.188073394496</v>
       </c>
       <c r="H28">
-        <v>656</v>
+        <v>18620.160550458713</v>
       </c>
       <c r="I28">
-        <v>657</v>
+        <v>18634.238532110096</v>
       </c>
       <c r="J28">
-        <v>668</v>
+        <v>18688.84403669725</v>
       </c>
       <c r="K28">
-        <v>628</v>
+        <v>18604.477064220184</v>
       </c>
       <c r="L28">
-        <v>649</v>
+        <v>18674.633027522937</v>
       </c>
       <c r="M28">
-        <v>642</v>
+        <v>18593.463302752294</v>
       </c>
       <c r="N28">
-        <v>645</v>
+        <v>18575.467889908254</v>
       </c>
       <c r="O28">
-        <v>639</v>
+        <v>18588.990825688077</v>
       </c>
       <c r="P28">
-        <v>669</v>
+        <v>18764.15137614679</v>
       </c>
       <c r="Q28">
-        <v>619</v>
+        <v>18528.564220183485</v>
       </c>
       <c r="R28">
-        <v>634</v>
+        <v>18606.050458715599</v>
       </c>
       <c r="S28">
-        <v>638</v>
+        <v>18375.01376146789</v>
       </c>
       <c r="T28">
-        <v>628</v>
+        <v>18432.394495412846</v>
       </c>
       <c r="U28">
-        <v>629</v>
+        <v>18526.66972477064</v>
       </c>
       <c r="V28">
-        <v>635</v>
+        <v>18529.98623853211</v>
       </c>
       <c r="W28">
-        <v>633</v>
+        <v>18423.298165137614</v>
       </c>
       <c r="X28">
-        <v>626</v>
+        <v>18465.550458715596</v>
       </c>
       <c r="Y28">
-        <v>624</v>
+        <v>18393.995412844037</v>
       </c>
       <c r="Z28">
-        <v>623</v>
+        <v>18382.83027522936</v>
       </c>
       <c r="AA28">
-        <v>636</v>
+        <v>18444.435779816511</v>
       </c>
       <c r="AB28">
-        <v>629</v>
+        <v>18525.34862385321</v>
       </c>
       <c r="AC28">
-        <v>633</v>
+        <v>18490.440366972474</v>
       </c>
       <c r="AD28">
-        <v>631</v>
+        <v>18492.201834862386</v>
       </c>
       <c r="AE28">
-        <v>639</v>
+        <v>18473.477064220187</v>
       </c>
       <c r="AF28">
-        <v>630</v>
+        <v>18471.628440366971</v>
       </c>
       <c r="AG28">
-        <v>629</v>
+        <v>18576.665137614676</v>
       </c>
       <c r="AH28">
-        <v>630</v>
+        <v>18444.426605504588</v>
       </c>
       <c r="AI28">
-        <v>644</v>
+        <v>18467.770642201838</v>
       </c>
       <c r="AJ28">
-        <v>627</v>
+        <v>18448.80733944954</v>
       </c>
     </row>
   </sheetData>
@@ -3612,12 +3640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3625,12 +3653,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
